--- a/dados/teste.xlsx
+++ b/dados/teste.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FBB9036-4B95-4A90-9169-3C1A7DC81EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5291C3E-2276-4E07-AD96-0E54E06CD74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8081" uniqueCount="8007">
   <si>
-    <t>CNPJ</t>
+    <t>cnpj</t>
   </si>
   <si>
     <t>razao_social</t>
@@ -24441,9 +24441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4041"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:I1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
   <cols>
